--- a/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.82</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.63</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>98.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.63</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +602,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,25 +632,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515110</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证国企一带一路ETF</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,25 +670,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>515110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>易方达中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.72</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -650,26 +708,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>515990</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>汇添富中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>96.64</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +746,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>515990</t>
+          <t>515590</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证国企一带一路ETF</t>
+          <t>前海开源中证500等权重ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.53</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -781,4 +782,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -876,4 +877,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银进宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9879</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1427,4 +1428,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1436,7 +1437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,17 +1448,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1467,14 +1488,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.86</v>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4111</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1483,14 +1526,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1499,14 +1564,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1515,13 +1602,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1645,7 +1646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,17 +1657,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1676,14 +1697,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.55</v>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1692,14 +1735,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.86</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4">
@@ -1708,14 +1841,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="5">
@@ -1724,14 +1857,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1740,13 +1873,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1778,7 +1779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,17 +1790,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1809,14 +1830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1825,14 +1868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.55</v>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1841,14 +1906,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3.86</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5">
@@ -1857,14 +2028,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="6">
@@ -1873,14 +2044,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -1889,13 +2060,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>3.86</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1109,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1659,7 +2036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1753,7 +2130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
+++ b/数据整理/stocks/A股/上证主板/601016-节能风电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>3.86</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -616,7 +633,231 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009768</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009769</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信汇悦一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -976,7 +1217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1146,7 +1387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1278,7 +1519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1486,7 +1727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2036,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2130,7 +2371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2336,134 +2577,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009768</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1314</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009769</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信汇悦一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>